--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -410,13 +410,13 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Assenso figlio</t>
+    <t>Atto Assenso Figlio</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
-    <t>Consenso padre</t>
+    <t>Atto Consenso Padre</t>
   </si>
   <si>
     <t>evento.consensoPadre.atto</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -2905,7 +2905,7 @@
         <v>37</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>107</v>
@@ -2925,7 +2925,7 @@
         <v>40</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>107</v>
@@ -2945,7 +2945,7 @@
         <v>42</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>107</v>
@@ -2965,7 +2965,7 @@
         <v>44</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>107</v>
@@ -2985,7 +2985,7 @@
         <v>46</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>107</v>
@@ -3005,7 +3005,7 @@
         <v>48</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>107</v>
@@ -3025,7 +3025,7 @@
         <v>50</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>107</v>
@@ -3045,7 +3045,7 @@
         <v>52</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>107</v>
@@ -3065,7 +3065,7 @@
         <v>54</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>107</v>
@@ -3085,7 +3085,7 @@
         <v>56</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>107</v>
@@ -3105,7 +3105,7 @@
         <v>58</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>107</v>
@@ -3125,7 +3125,7 @@
         <v>60</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>107</v>
@@ -3145,7 +3145,7 @@
         <v>62</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>107</v>
@@ -3165,7 +3165,7 @@
         <v>64</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>107</v>
@@ -3185,7 +3185,7 @@
         <v>66</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>107</v>
@@ -3205,7 +3205,7 @@
         <v>68</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>107</v>
@@ -3225,7 +3225,7 @@
         <v>70</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>107</v>
@@ -3245,7 +3245,7 @@
         <v>72</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>107</v>
@@ -3265,7 +3265,7 @@
         <v>74</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>107</v>
@@ -3285,7 +3285,7 @@
         <v>76</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>107</v>
@@ -3305,7 +3305,7 @@
         <v>78</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>107</v>
@@ -3325,7 +3325,7 @@
         <v>80</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>107</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -473,21 +473,6 @@
     <t>evento.consensoPadre.sentenzaTribunale</t>
   </si>
   <si>
-    <t>Atto riconoscimento paterno</t>
-  </si>
-  <si>
-    <t>Avvenuto</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoPadre</t>
-  </si>
-  <si>
-    <t>avvenuto</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoPadre.atto</t>
-  </si>
-  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -519,6 +504,27 @@
   </si>
   <si>
     <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
+  </si>
+  <si>
+    <t>preMorto</t>
+  </si>
+  <si>
+    <t>Presenza discendenti</t>
+  </si>
+  <si>
+    <t>presenzaDiscendenti</t>
+  </si>
+  <si>
+    <t>Tipologia consenso del padre</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre</t>
+  </si>
+  <si>
+    <t>tipoConsenso</t>
   </si>
   <si>
     <t>Tipo dichiarazione assenso</t>
@@ -583,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4342,19 +4348,19 @@
         <v>153</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="189">
@@ -4362,19 +4368,19 @@
         <v>153</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190">
@@ -4382,19 +4388,19 @@
         <v>153</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="191">
@@ -4402,19 +4408,19 @@
         <v>153</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="192">
@@ -4422,16 +4428,16 @@
         <v>153</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4442,19 +4448,19 @@
         <v>153</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194">
@@ -4462,16 +4468,16 @@
         <v>153</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4482,19 +4488,19 @@
         <v>153</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196">
@@ -4502,16 +4508,16 @@
         <v>153</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4522,19 +4528,19 @@
         <v>153</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198">
@@ -4542,16 +4548,16 @@
         <v>153</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4562,19 +4568,19 @@
         <v>153</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200">
@@ -4582,16 +4588,16 @@
         <v>153</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4599,259 +4605,259 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F210" s="2" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -4859,39 +4865,39 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -4899,221 +4905,21 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F226" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -416,12 +422,18 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
+  </si>
+  <si>
     <t>Atto Consenso Padre</t>
   </si>
   <si>
     <t>evento.consensoPadre.atto</t>
   </si>
   <si>
+    <t>{evento.consensoPadre.tipoConsenso,!=,2}</t>
+  </si>
+  <si>
     <t>Data formazione documento</t>
   </si>
   <si>
@@ -431,6 +443,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>{evento.consensoPadre.tipoConsenso,!=,3}</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -473,6 +488,9 @@
     <t>evento.consensoPadre.sentenzaTribunale</t>
   </si>
   <si>
+    <t>{evento.consensoPadre.tipoConsenso,!=,4}</t>
+  </si>
+  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -480,6 +498,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -589,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -601,6 +622,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="52.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -622,225 +644,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -862,4065 +920,4677 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F185" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,55 +32,58 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di assenso del figlio</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di assenso del figlio</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -921,4676 +924,4676 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Copia dell'atto di assenso del figlio</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -425,7 +428,7 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
   </si>
   <si>
     <t>Atto Consenso Padre</t>
@@ -434,7 +437,7 @@
     <t>evento.consensoPadre.atto</t>
   </si>
   <si>
-    <t>{evento.consensoPadre.tipoConsenso,!=,2}</t>
+    <t>evento.consensoPadre.tipoConsenso,!=,2</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -446,7 +449,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.consensoPadre.tipoConsenso,!=,3}</t>
+    <t>evento.consensoPadre.tipoConsenso,!=,3</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -491,7 +494,7 @@
     <t>evento.consensoPadre.sentenzaTribunale</t>
   </si>
   <si>
-    <t>{evento.consensoPadre.tipoConsenso,!=,4}</t>
+    <t>evento.consensoPadre.tipoConsenso,!=,4</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -503,7 +506,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -613,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -625,7 +628,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="52.37890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.99609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -745,13 +748,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -768,13 +771,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -791,7 +794,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -814,7 +817,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -837,7 +840,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -860,7 +863,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -883,7 +886,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -905,3044 +908,3044 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>126</v>
@@ -3951,44 +3954,44 @@
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>129</v>
@@ -3997,228 +4000,228 @@
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>126</v>
@@ -4227,274 +4230,274 @@
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>126</v>
@@ -4503,1097 +4506,1120 @@
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F178" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F181" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F183" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F185" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F187" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F203" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F205" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F206" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F211" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E216" s="2" t="s">
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>28</v>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="188">
   <si>
     <t>Sezione</t>
   </si>
@@ -314,22 +314,40 @@
     <t>minutoMorte</t>
   </si>
   <si>
-    <t>stato</t>
+    <t>Stato di morte</t>
   </si>
   <si>
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaMorte</t>
   </si>
   <si>
-    <t>comune</t>
+    <t>Comune di morte</t>
   </si>
   <si>
     <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
   </si>
   <si>
     <t>indirizzo</t>
@@ -616,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3287,10 +3305,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3301,19 +3319,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3324,19 +3342,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3347,19 +3365,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3370,19 +3388,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3393,19 +3411,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3434,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3439,19 +3457,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3480,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3485,19 +3503,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3508,19 +3526,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3531,19 +3549,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3554,19 +3572,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3577,19 +3595,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3600,19 +3618,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3623,19 +3641,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3646,19 +3664,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3687,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3692,19 +3710,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3715,19 +3733,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3738,19 +3756,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3761,19 +3779,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3784,19 +3802,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3807,19 +3825,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3830,19 +3848,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3853,19 +3871,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3876,16 +3894,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>121</v>
@@ -3899,7 +3917,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>122</v>
@@ -3908,7 +3926,7 @@
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>123</v>
@@ -3922,7 +3940,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>124</v>
@@ -3931,7 +3949,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>125</v>
@@ -3945,7 +3963,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>126</v>
@@ -3954,10 +3972,10 @@
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3968,19 +3986,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3991,19 +4009,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4014,19 +4032,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4037,19 +4055,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4060,19 +4078,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4083,85 +4101,85 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>121</v>
@@ -4170,12 +4188,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>122</v>
@@ -4184,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>123</v>
@@ -4193,21 +4211,21 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>125</v>
@@ -4216,12 +4234,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>126</v>
@@ -4230,214 +4248,214 @@
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>121</v>
@@ -4446,12 +4464,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>122</v>
@@ -4460,7 +4478,7 @@
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>123</v>
@@ -4469,21 +4487,21 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>125</v>
@@ -4492,12 +4510,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>126</v>
@@ -4506,228 +4524,228 @@
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E178" s="2" t="s">
+      <c r="F178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>152</v>
@@ -4736,7 +4754,7 @@
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>153</v>
@@ -4745,12 +4763,12 @@
         <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>154</v>
@@ -4759,21 +4777,21 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>156</v>
@@ -4782,113 +4800,113 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>152</v>
@@ -4897,7 +4915,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>153</v>
@@ -4906,12 +4924,12 @@
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>154</v>
@@ -4920,21 +4938,21 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>156</v>
@@ -4943,605 +4961,605 @@
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E212" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>174</v>
@@ -5555,7 +5573,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>175</v>
@@ -5564,13 +5582,13 @@
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>29</v>
@@ -5578,7 +5596,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>177</v>
@@ -5587,10 +5605,10 @@
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5601,24 +5619,93 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E217" s="2" t="s">
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="190">
   <si>
     <t>Sezione</t>
   </si>
@@ -200,6 +200,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -422,22 +428,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto Assenso Figlio</t>
@@ -634,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1617,22 +1623,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>29</v>
@@ -1640,22 +1646,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>29</v>
@@ -1663,19 +1669,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1778,22 +1784,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>29</v>
@@ -1801,22 +1807,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>29</v>
@@ -1824,22 +1830,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>29</v>
@@ -1847,22 +1853,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>29</v>
@@ -1870,22 +1876,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>29</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1962,22 +1968,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>29</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>17</v>
@@ -2031,22 +2037,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>29</v>
@@ -2054,22 +2060,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>29</v>
@@ -2077,22 +2083,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>29</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2132,19 @@
         <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>29</v>
@@ -2149,7 +2155,7 @@
         <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -2158,7 +2164,7 @@
         <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2169,22 +2175,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>29</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2284,22 +2290,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>29</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -2353,19 +2359,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2376,22 +2382,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>29</v>
@@ -2399,22 +2405,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>29</v>
@@ -2422,19 +2428,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2468,22 +2474,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>29</v>
@@ -2491,19 +2497,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2514,22 +2520,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>29</v>
@@ -2537,19 +2543,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2583,22 +2589,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>29</v>
@@ -2606,22 +2612,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>29</v>
@@ -2632,19 +2638,19 @@
         <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>29</v>
@@ -2655,7 +2661,7 @@
         <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -2664,7 +2670,7 @@
         <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2678,7 +2684,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -2687,7 +2693,7 @@
         <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2698,22 +2704,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>29</v>
@@ -2721,19 +2727,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2767,19 +2773,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2790,22 +2796,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>29</v>
@@ -2813,19 +2819,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2836,22 +2842,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>29</v>
@@ -2859,22 +2865,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>29</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2905,22 +2911,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>29</v>
@@ -2928,22 +2934,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>29</v>
@@ -2951,19 +2957,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2974,22 +2980,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>29</v>
@@ -2997,19 +3003,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3020,22 +3026,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>29</v>
@@ -3043,22 +3049,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>29</v>
@@ -3066,22 +3072,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>29</v>
@@ -3089,19 +3095,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3112,22 +3118,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>29</v>
@@ -3138,19 +3144,19 @@
         <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>29</v>
@@ -3161,16 +3167,16 @@
         <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3184,16 +3190,16 @@
         <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3207,16 +3213,16 @@
         <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3227,19 +3233,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3250,19 +3256,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3273,19 +3279,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3296,19 +3302,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3319,19 +3325,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3342,19 +3348,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3365,19 +3371,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3388,19 +3394,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3411,19 +3417,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3434,19 +3440,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3457,19 +3463,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3480,19 +3486,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3503,19 +3509,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3526,19 +3532,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3549,19 +3555,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3572,19 +3578,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3595,19 +3601,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3618,19 +3624,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3641,19 +3647,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3664,19 +3670,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3687,19 +3693,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3710,19 +3716,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3733,19 +3739,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3756,19 +3762,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3779,19 +3785,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3802,19 +3808,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3825,19 +3831,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3848,19 +3854,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3871,19 +3877,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3897,16 +3903,16 @@
         <v>118</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3920,16 +3926,16 @@
         <v>118</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3943,16 +3949,16 @@
         <v>118</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3966,16 +3972,16 @@
         <v>118</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3989,16 +3995,16 @@
         <v>118</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4009,19 +4015,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4032,19 +4038,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4055,19 +4061,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4078,19 +4084,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4101,19 +4107,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4124,19 +4130,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4147,19 +4153,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4170,1542 +4176,1680 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="E166" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="E169" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="E170" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="E192" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="2" t="s">
+      <c r="E193" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194" s="2" t="s">
+      <c r="E194" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="2" t="s">
+      <c r="E195" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F215" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G215" s="2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G216" s="2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E220" s="2" t="s">
+      <c r="E225" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="194">
   <si>
     <t>Sezione</t>
   </si>
@@ -290,6 +290,15 @@
     <t>evento.padre</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>avvenuto</t>
+  </si>
+  <si>
+    <t>evento.riconoscimentoPadre</t>
+  </si>
+  <si>
     <t>Figlio</t>
   </si>
   <si>
@@ -530,7 +539,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -640,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -652,7 +664,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.99609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2193,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68">
@@ -2216,7 +2228,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69">
@@ -2239,7 +2251,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70">
@@ -2262,7 +2274,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71">
@@ -2285,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72">
@@ -2308,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
@@ -2331,7 +2343,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
@@ -2354,7 +2366,7 @@
         <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
@@ -2377,7 +2389,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76">
@@ -2400,7 +2412,7 @@
         <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
@@ -2423,7 +2435,7 @@
         <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
@@ -2446,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79">
@@ -2469,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80">
@@ -2492,7 +2504,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81">
@@ -2515,7 +2527,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82">
@@ -2538,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83">
@@ -2561,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84">
@@ -2584,7 +2596,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85">
@@ -2607,7 +2619,7 @@
         <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
@@ -2630,7 +2642,7 @@
         <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
@@ -2653,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
@@ -2676,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89">
@@ -2699,50 +2711,50 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>29</v>
@@ -2750,19 +2762,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2785,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2808,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2831,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2854,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2865,22 +2877,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>29</v>
@@ -2888,22 +2900,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>29</v>
@@ -2911,22 +2923,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>29</v>
@@ -2934,19 +2946,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>17</v>
@@ -2957,22 +2969,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>29</v>
@@ -2980,19 +2992,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3015,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3038,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3061,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3072,22 +3084,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>29</v>
@@ -3095,22 +3107,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>29</v>
@@ -3118,22 +3130,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>29</v>
@@ -3141,19 +3153,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>17</v>
@@ -3164,22 +3176,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>29</v>
@@ -3187,19 +3199,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3210,19 +3222,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3233,19 +3245,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3256,7 +3268,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>98</v>
@@ -3265,10 +3277,10 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3279,19 +3291,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3302,19 +3314,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3325,19 +3337,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3348,19 +3360,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3371,19 +3383,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3394,19 +3406,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3417,19 +3429,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3440,19 +3452,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3463,19 +3475,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3486,19 +3498,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3509,19 +3521,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3532,19 +3544,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3555,19 +3567,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3578,19 +3590,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3601,19 +3613,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3624,19 +3636,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3647,19 +3659,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3670,19 +3682,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3693,19 +3705,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3716,19 +3728,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3739,19 +3751,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3762,19 +3774,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3785,19 +3797,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3808,19 +3820,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3831,19 +3843,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3854,19 +3866,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3877,19 +3889,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3900,19 +3912,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3923,19 +3935,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3946,19 +3958,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3969,19 +3981,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3992,19 +4004,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4015,19 +4027,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4038,19 +4050,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4061,19 +4073,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4084,19 +4096,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4107,19 +4119,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4130,19 +4142,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4153,19 +4165,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4176,19 +4188,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4199,19 +4211,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4222,19 +4234,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4245,19 +4257,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4268,19 +4280,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4291,278 +4303,278 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171">
@@ -4570,7 +4582,7 @@
         <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4579,7 +4591,7 @@
         <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4590,263 +4602,263 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4855,27 +4867,27 @@
         <v>151</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>155</v>
@@ -4884,159 +4896,159 @@
         <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>155</v>
@@ -5045,122 +5057,122 @@
         <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197">
@@ -5168,7 +5180,7 @@
         <v>169</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5177,562 +5189,562 @@
         <v>170</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="F197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="E220" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>29</v>
@@ -5740,22 +5752,22 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E222" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>29</v>
@@ -5763,19 +5775,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5786,19 +5798,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5809,19 +5821,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5832,24 +5844,47 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="190">
   <si>
     <t>Sezione</t>
   </si>
@@ -290,15 +290,6 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>opzionale</t>
-  </si>
-  <si>
-    <t>avvenuto</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoPadre</t>
-  </si>
-  <si>
     <t>Figlio</t>
   </si>
   <si>
@@ -540,9 +531,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -652,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2205,7 +2193,7 @@
         <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
@@ -2228,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
@@ -2251,7 +2239,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -2274,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -2297,7 +2285,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
@@ -2320,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
@@ -2343,7 +2331,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -2366,7 +2354,7 @@
         <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
@@ -2389,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
@@ -2412,7 +2400,7 @@
         <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
@@ -2435,7 +2423,7 @@
         <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -2458,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
@@ -2481,7 +2469,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -2504,7 +2492,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
@@ -2527,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
@@ -2550,7 +2538,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -2573,7 +2561,7 @@
         <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
@@ -2596,7 +2584,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
@@ -2619,7 +2607,7 @@
         <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
@@ -2642,7 +2630,7 @@
         <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
@@ -2665,7 +2653,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
@@ -2688,7 +2676,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
@@ -2711,50 +2699,50 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>29</v>
@@ -2762,19 +2750,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2773,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2796,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2819,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2854,19 +2842,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2877,22 +2865,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>29</v>
@@ -2900,22 +2888,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>29</v>
@@ -2923,22 +2911,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>29</v>
@@ -2946,19 +2934,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>17</v>
@@ -2969,22 +2957,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>29</v>
@@ -2992,19 +2980,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3003,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3026,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3049,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3084,22 +3072,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>29</v>
@@ -3107,22 +3095,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>29</v>
@@ -3130,22 +3118,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>29</v>
@@ -3153,19 +3141,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>17</v>
@@ -3176,22 +3164,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>29</v>
@@ -3199,19 +3187,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3210,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3245,19 +3233,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3268,7 +3256,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>98</v>
@@ -3277,10 +3265,10 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3279,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3302,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3337,19 +3325,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3360,19 +3348,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3383,19 +3371,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3406,19 +3394,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3417,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3452,19 +3440,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3475,19 +3463,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3498,19 +3486,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3521,19 +3509,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3544,19 +3532,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3567,19 +3555,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3590,19 +3578,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3613,19 +3601,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3636,19 +3624,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3659,19 +3647,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3682,19 +3670,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3705,19 +3693,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3728,19 +3716,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3751,19 +3739,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3774,19 +3762,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3797,19 +3785,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3820,19 +3808,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3843,19 +3831,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3866,19 +3854,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3889,19 +3877,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3912,19 +3900,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3935,19 +3923,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3958,19 +3946,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3981,19 +3969,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4004,19 +3992,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4027,19 +4015,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4050,19 +4038,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4073,19 +4061,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4096,19 +4084,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4119,19 +4107,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4142,19 +4130,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4165,19 +4153,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4188,19 +4176,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4211,19 +4199,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4234,19 +4222,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4257,19 +4245,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4280,19 +4268,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4303,278 +4291,278 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171">
@@ -4582,7 +4570,7 @@
         <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4591,7 +4579,7 @@
         <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4602,263 +4590,263 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4867,27 +4855,27 @@
         <v>151</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>155</v>
@@ -4896,159 +4884,159 @@
         <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F188" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>155</v>
@@ -5057,122 +5045,122 @@
         <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F193" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="197">
@@ -5180,7 +5168,7 @@
         <v>169</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5189,562 +5177,562 @@
         <v>170</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>29</v>
@@ -5752,22 +5740,22 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>29</v>
@@ -5775,19 +5763,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5798,19 +5786,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5821,19 +5809,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5844,47 +5832,24 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="194">
   <si>
     <t>Sezione</t>
   </si>
@@ -290,6 +290,15 @@
     <t>evento.padre</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>avvenuto</t>
+  </si>
+  <si>
+    <t>evento.riconoscimentoPadre</t>
+  </si>
+  <si>
     <t>Figlio</t>
   </si>
   <si>
@@ -531,6 +540,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -640,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2193,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68">
@@ -2216,7 +2228,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69">
@@ -2239,7 +2251,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70">
@@ -2262,7 +2274,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71">
@@ -2285,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72">
@@ -2308,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
@@ -2331,7 +2343,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
@@ -2354,7 +2366,7 @@
         <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
@@ -2377,7 +2389,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76">
@@ -2400,7 +2412,7 @@
         <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
@@ -2423,7 +2435,7 @@
         <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
@@ -2446,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79">
@@ -2469,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80">
@@ -2492,7 +2504,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81">
@@ -2515,7 +2527,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82">
@@ -2538,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83">
@@ -2561,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84">
@@ -2584,7 +2596,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85">
@@ -2607,7 +2619,7 @@
         <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
@@ -2630,7 +2642,7 @@
         <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
@@ -2653,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
@@ -2676,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89">
@@ -2699,50 +2711,50 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>29</v>
@@ -2750,19 +2762,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2785,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2808,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2831,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2854,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2865,22 +2877,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>29</v>
@@ -2888,22 +2900,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>29</v>
@@ -2911,22 +2923,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>29</v>
@@ -2934,19 +2946,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>17</v>
@@ -2957,22 +2969,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>29</v>
@@ -2980,19 +2992,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3015,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3038,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3061,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3072,22 +3084,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>29</v>
@@ -3095,22 +3107,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>29</v>
@@ -3118,22 +3130,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>29</v>
@@ -3141,19 +3153,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>17</v>
@@ -3164,22 +3176,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>29</v>
@@ -3187,19 +3199,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3210,19 +3222,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3233,19 +3245,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3256,7 +3268,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>98</v>
@@ -3265,10 +3277,10 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3279,19 +3291,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3302,19 +3314,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3325,19 +3337,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3348,19 +3360,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3371,19 +3383,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3394,19 +3406,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3417,19 +3429,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3440,19 +3452,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3463,19 +3475,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3486,19 +3498,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3509,19 +3521,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3532,19 +3544,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3555,19 +3567,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3578,19 +3590,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3601,19 +3613,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3624,19 +3636,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3647,19 +3659,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3670,19 +3682,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3693,19 +3705,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3716,19 +3728,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3739,19 +3751,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3762,19 +3774,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3785,19 +3797,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3808,19 +3820,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3831,19 +3843,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3854,19 +3866,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3877,19 +3889,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3900,19 +3912,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3923,19 +3935,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3946,19 +3958,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3969,19 +3981,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3992,19 +4004,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4015,19 +4027,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4038,19 +4050,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4061,19 +4073,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4084,19 +4096,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4107,19 +4119,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4130,19 +4142,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4153,19 +4165,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4176,19 +4188,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4199,19 +4211,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4222,19 +4234,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4245,19 +4257,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4268,19 +4280,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4291,278 +4303,278 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171">
@@ -4570,7 +4582,7 @@
         <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4579,7 +4591,7 @@
         <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4590,263 +4602,263 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -4855,27 +4867,27 @@
         <v>151</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>155</v>
@@ -4884,159 +4896,159 @@
         <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>155</v>
@@ -5045,122 +5057,122 @@
         <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197">
@@ -5168,7 +5180,7 @@
         <v>169</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5177,562 +5189,562 @@
         <v>170</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="F197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="E220" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>29</v>
@@ -5740,22 +5752,22 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E222" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>29</v>
@@ -5763,19 +5775,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5786,19 +5798,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5809,19 +5821,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5832,24 +5844,47 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="204">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -652,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -662,7 +692,7 @@
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2187,778 +2217,778 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>17</v>
@@ -2969,22 +2999,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>29</v>
@@ -2992,19 +3022,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3045,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3068,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3091,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3114,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3137,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>17</v>
@@ -3130,19 +3160,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3183,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>17</v>
@@ -3176,19 +3206,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>17</v>
@@ -3199,19 +3229,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3252,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3245,19 +3275,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3298,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3321,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3314,22 +3344,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>29</v>
@@ -3337,19 +3367,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3360,22 +3390,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>29</v>
@@ -3383,22 +3413,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>29</v>
@@ -3406,19 +3436,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3459,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3452,19 +3482,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3475,19 +3505,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3498,22 +3528,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>29</v>
@@ -3521,19 +3551,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3544,22 +3574,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>29</v>
@@ -3567,19 +3597,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3590,19 +3620,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3613,19 +3643,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3636,19 +3666,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3659,19 +3689,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3682,19 +3712,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3705,19 +3735,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3728,19 +3758,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3751,19 +3781,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3774,19 +3804,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3797,19 +3827,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3820,19 +3850,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3843,19 +3873,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3866,19 +3896,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3889,19 +3919,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3912,19 +3942,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3935,19 +3965,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3958,19 +3988,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3981,19 +4011,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4004,19 +4034,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4027,19 +4057,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4050,19 +4080,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4073,19 +4103,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4096,19 +4126,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4119,19 +4149,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4142,19 +4172,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4165,19 +4195,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4188,19 +4218,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4211,19 +4241,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4234,19 +4264,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4257,19 +4287,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4280,19 +4310,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4303,19 +4333,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4326,1565 +4356,1864 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E187" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E194" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F207" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E223" s="2" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="F235" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
+      <c r="C236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -152,6 +152,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -206,13 +212,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -335,271 +341,202 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Assenso Figlio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+  </si>
+  <si>
+    <t>Atto Consenso Padre</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.atto</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.tipoConsenso,!=,2</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.altroUfficiale</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.tipoConsenso,!=,3</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Sentenza di consenso</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.sentenzaTribunale</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.tipoConsenso,!=,4</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
-  </si>
-  <si>
-    <t>Atto Consenso Padre</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.atto</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.tipoConsenso,!=,2</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.altroUfficiale</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.tipoConsenso,!=,3</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Sentenza di consenso</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.sentenzaTribunale</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.tipoConsenso,!=,4</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -682,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1688,22 +1625,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>29</v>
@@ -1711,22 +1648,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>29</v>
@@ -1734,19 +1671,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1694,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1717,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1740,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1763,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1849,22 +1786,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>29</v>
@@ -1872,19 +1809,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1832,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>17</v>
@@ -1918,22 +1855,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>29</v>
@@ -1941,22 +1878,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>29</v>
@@ -1964,22 +1901,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>29</v>
@@ -1987,19 +1924,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2010,19 +1947,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2033,19 +1970,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2056,22 +1993,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>29</v>
@@ -2079,19 +2016,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2039,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -2125,22 +2062,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>29</v>
@@ -2148,22 +2085,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>29</v>
@@ -2171,22 +2108,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>29</v>
@@ -2194,19 +2131,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2154,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2240,22 +2177,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>29</v>
@@ -2263,19 +2200,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2223,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
@@ -2309,22 +2246,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>29</v>
@@ -2332,735 +2269,735 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>29</v>
@@ -3068,19 +3005,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3091,19 +3028,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3114,19 +3051,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3137,22 +3074,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>29</v>
@@ -3160,19 +3097,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3183,22 +3120,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>29</v>
@@ -3206,22 +3143,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>29</v>
@@ -3229,22 +3166,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>29</v>
@@ -3252,19 +3189,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3275,22 +3212,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>29</v>
@@ -3298,22 +3235,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>29</v>
@@ -3321,19 +3258,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3344,22 +3281,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>29</v>
@@ -3367,19 +3304,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3390,22 +3327,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>29</v>
@@ -3413,22 +3350,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>29</v>
@@ -3436,22 +3373,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>29</v>
@@ -3459,19 +3396,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3482,22 +3419,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>29</v>
@@ -3505,22 +3442,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>29</v>
@@ -3528,22 +3465,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>29</v>
@@ -3551,19 +3488,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3574,22 +3511,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>29</v>
@@ -3600,16 +3537,16 @@
         <v>107</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3623,19 +3560,19 @@
         <v>107</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>29</v>
@@ -3646,16 +3583,16 @@
         <v>107</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3606,19 @@
         <v>107</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>29</v>
@@ -3689,19 +3626,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3712,19 +3649,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3735,19 +3672,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3758,19 +3695,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3781,19 +3718,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3804,19 +3741,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3827,19 +3764,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3850,19 +3787,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3873,19 +3810,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3896,19 +3833,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3919,19 +3856,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3942,19 +3879,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3965,19 +3902,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3988,19 +3925,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4011,19 +3948,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4034,19 +3971,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4057,19 +3994,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4080,19 +4017,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4103,19 +4040,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4126,19 +4063,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4149,19 +4086,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4172,19 +4109,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4195,19 +4132,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4218,19 +4155,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4241,19 +4178,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4264,19 +4201,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4287,19 +4224,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4310,19 +4247,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4333,19 +4270,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4356,19 +4293,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4379,19 +4316,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4402,19 +4339,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4425,19 +4362,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4448,19 +4385,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4471,19 +4408,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4494,19 +4431,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4517,1560 +4454,1560 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E187" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
@@ -6081,139 +6018,24 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="185">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -619,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1648,22 +1654,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>29</v>
@@ -1671,22 +1677,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>29</v>
@@ -1694,19 +1700,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1723,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1746,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1815,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1832,22 +1838,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>29</v>
@@ -1855,22 +1861,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>29</v>
@@ -1878,22 +1884,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>29</v>
@@ -1901,19 +1907,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>17</v>
@@ -1924,22 +1930,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>29</v>
@@ -1947,19 +1953,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1970,19 +1976,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1993,22 +1999,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>29</v>
@@ -2016,19 +2022,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>17</v>
@@ -2108,22 +2114,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>29</v>
@@ -2131,22 +2137,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>29</v>
@@ -2154,22 +2160,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>29</v>
@@ -2177,19 +2183,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2206,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2223,22 +2229,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>29</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2275,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>17</v>
@@ -2292,22 +2298,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>29</v>
@@ -2315,723 +2321,723 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3040,33 +3046,33 @@
         <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>29</v>
@@ -3074,19 +3080,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3097,19 +3103,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3126,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3143,19 +3149,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3166,22 +3172,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>29</v>
@@ -3189,19 +3195,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3212,22 +3218,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>29</v>
@@ -3235,19 +3241,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>17</v>
@@ -3258,19 +3264,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3281,22 +3287,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>29</v>
@@ -3304,22 +3310,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>29</v>
@@ -3327,19 +3333,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3350,19 +3356,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3373,19 +3379,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>17</v>
@@ -3396,19 +3402,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3419,19 +3425,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>17</v>
@@ -3442,22 +3448,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>29</v>
@@ -3465,22 +3471,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>29</v>
@@ -3488,19 +3494,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3511,22 +3517,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>29</v>
@@ -3534,22 +3540,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>29</v>
@@ -3557,22 +3563,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>29</v>
@@ -3580,19 +3586,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3603,22 +3609,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>29</v>
@@ -3629,16 +3635,16 @@
         <v>109</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3652,19 +3658,19 @@
         <v>109</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>29</v>
@@ -3675,16 +3681,16 @@
         <v>109</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3698,19 +3704,19 @@
         <v>109</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>29</v>
@@ -3718,19 +3724,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3741,19 +3747,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3764,19 +3770,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3787,19 +3793,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3810,19 +3816,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3833,19 +3839,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3856,19 +3862,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3879,19 +3885,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3902,19 +3908,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3925,19 +3931,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3948,19 +3954,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3971,19 +3977,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3994,19 +4000,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4017,19 +4023,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4040,19 +4046,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4063,19 +4069,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4086,19 +4092,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4109,19 +4115,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4132,19 +4138,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4155,19 +4161,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4181,16 +4187,16 @@
         <v>111</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4204,16 +4210,16 @@
         <v>111</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4227,16 +4233,16 @@
         <v>111</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4250,16 +4256,16 @@
         <v>111</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4273,16 +4279,16 @@
         <v>111</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4293,19 +4299,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4316,19 +4322,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4339,19 +4345,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4362,19 +4368,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4385,19 +4391,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4408,19 +4414,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4431,19 +4437,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4454,1588 +4460,1726 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E199" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="E205" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206" s="2" t="s">
+      <c r="E206" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
+      <c r="E207" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="E208" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D209" s="2" t="s">
+      <c r="E209" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F228" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G228" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E235" s="2" t="s">
+      <c r="E240" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -625,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1677,22 +1683,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>29</v>
@@ -1700,22 +1706,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>29</v>
@@ -1723,19 +1729,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1752,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1769,19 +1775,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1821,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1844,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1861,22 +1867,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>29</v>
@@ -1884,22 +1890,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>29</v>
@@ -1907,22 +1913,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>29</v>
@@ -1930,19 +1936,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>17</v>
@@ -1953,22 +1959,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>29</v>
@@ -1976,19 +1982,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1999,22 +2005,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>29</v>
@@ -2022,22 +2028,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>29</v>
@@ -2045,19 +2051,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -2068,19 +2074,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2097,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>17</v>
@@ -2114,19 +2120,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2143,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>17</v>
@@ -2160,22 +2166,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>29</v>
@@ -2183,22 +2189,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>29</v>
@@ -2206,22 +2212,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>29</v>
@@ -2229,19 +2235,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2258,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2275,22 +2281,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>29</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2327,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -2344,22 +2350,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>29</v>
@@ -2367,746 +2373,746 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3115,33 +3121,33 @@
         <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>29</v>
@@ -3149,19 +3155,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3195,19 +3201,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3218,19 +3224,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3241,22 +3247,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>29</v>
@@ -3264,19 +3270,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3287,22 +3293,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>29</v>
@@ -3310,19 +3316,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>17</v>
@@ -3333,19 +3339,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3356,22 +3362,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>29</v>
@@ -3379,19 +3385,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>17</v>
@@ -3402,19 +3408,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3425,22 +3431,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>29</v>
@@ -3448,22 +3454,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>29</v>
@@ -3471,19 +3477,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>17</v>
@@ -3494,19 +3500,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3517,19 +3523,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>17</v>
@@ -3540,22 +3546,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>29</v>
@@ -3563,22 +3569,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>29</v>
@@ -3586,19 +3592,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3609,22 +3615,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>29</v>
@@ -3632,22 +3638,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>29</v>
@@ -3655,22 +3661,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>29</v>
@@ -3678,19 +3684,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3701,22 +3707,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>29</v>
@@ -3727,16 +3733,16 @@
         <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3750,19 +3756,19 @@
         <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>29</v>
@@ -3773,16 +3779,16 @@
         <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3796,19 +3802,19 @@
         <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>29</v>
@@ -3816,19 +3822,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3839,19 +3845,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3862,19 +3868,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3885,19 +3891,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3908,19 +3914,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3931,19 +3937,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3954,19 +3960,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3977,19 +3983,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4000,19 +4006,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4023,19 +4029,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4046,19 +4052,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4069,19 +4075,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4092,19 +4098,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4115,19 +4121,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4138,19 +4144,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4161,19 +4167,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4184,19 +4190,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4207,19 +4213,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4230,19 +4236,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4253,19 +4259,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4276,19 +4282,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4302,16 +4308,16 @@
         <v>113</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4325,16 +4331,16 @@
         <v>113</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4348,16 +4354,16 @@
         <v>113</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4371,16 +4377,16 @@
         <v>113</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4394,16 +4400,16 @@
         <v>113</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4414,19 +4420,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4437,19 +4443,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4460,19 +4466,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4483,19 +4489,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4506,19 +4512,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4529,19 +4535,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4552,19 +4558,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4575,1611 +4581,1749 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E204" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="E210" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="2" t="s">
+      <c r="E211" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
+      <c r="E212" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="2" t="s">
+      <c r="E213" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="2" t="s">
+      <c r="E214" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G234" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E241" s="2" t="s">
+      <c r="E246" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -746,7 +746,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -631,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4679,7 +4685,7 @@
         <v>137</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>117</v>
@@ -4696,1560 +4702,1560 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E209" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="E215" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="E216" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F240" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G240" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -6260,22 +6266,22 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>29</v>
@@ -6283,19 +6289,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
@@ -6306,24 +6312,93 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E247" s="2" t="s">
+      <c r="E249" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247" s="2" t="s">
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,12 +351,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
   </si>
   <si>
     <t>Atto Nascita Figlio</t>
@@ -637,16 +631,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.2421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -3831,16 +3825,16 @@
         <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3854,16 +3848,16 @@
         <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3877,16 +3871,16 @@
         <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3900,16 +3894,16 @@
         <v>113</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3923,16 +3917,16 @@
         <v>113</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3946,16 +3940,16 @@
         <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3969,16 +3963,16 @@
         <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3992,16 +3986,16 @@
         <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4015,16 +4009,16 @@
         <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4038,16 +4032,16 @@
         <v>113</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4061,16 +4055,16 @@
         <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4084,16 +4078,16 @@
         <v>113</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4107,16 +4101,16 @@
         <v>113</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4127,453 +4121,453 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>28</v>
@@ -4582,44 +4576,44 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>31</v>
@@ -4628,1777 +4622,1179 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G250" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -5323,7 +5323,7 @@
         <v>66</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>165</v>
@@ -5346,7 +5346,7 @@
         <v>68</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>165</v>
@@ -5355,7 +5355,7 @@
         <v>69</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>167</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -437,7 +437,7 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
-    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
   </si>
   <si>
     <t>Atto Consenso Padre</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="191">
   <si>
     <t>Sezione</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -631,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1706,22 +1718,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>29</v>
@@ -1729,19 +1741,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1752,22 +1764,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>29</v>
@@ -1775,19 +1787,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1810,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1833,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1856,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1867,22 +1879,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>29</v>
@@ -1890,22 +1902,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>29</v>
@@ -1913,19 +1925,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1936,22 +1948,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>29</v>
@@ -1959,22 +1971,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>29</v>
@@ -1982,22 +1994,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>29</v>
@@ -2005,19 +2017,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2040,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
@@ -2051,19 +2063,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -2074,19 +2086,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2097,22 +2109,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>29</v>
@@ -2120,22 +2132,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>29</v>
@@ -2143,19 +2155,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>17</v>
@@ -2166,19 +2178,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2201,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>17</v>
@@ -2212,22 +2224,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>29</v>
@@ -2235,22 +2247,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>29</v>
@@ -2258,19 +2270,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2281,22 +2293,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>29</v>
@@ -2304,22 +2316,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>29</v>
@@ -2327,22 +2339,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>29</v>
@@ -2350,19 +2362,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2373,22 +2385,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>29</v>
@@ -2396,22 +2408,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>29</v>
@@ -2419,873 +2431,873 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>29</v>
@@ -3293,19 +3305,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3316,22 +3328,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>29</v>
@@ -3339,19 +3351,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3362,22 +3374,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>29</v>
@@ -3385,19 +3397,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>17</v>
@@ -3408,19 +3420,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3431,19 +3443,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3454,22 +3466,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>29</v>
@@ -3477,22 +3489,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>29</v>
@@ -3500,22 +3512,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>29</v>
@@ -3523,22 +3535,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>29</v>
@@ -3546,22 +3558,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>29</v>
@@ -3569,19 +3581,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>17</v>
@@ -3592,19 +3604,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3615,22 +3627,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>29</v>
@@ -3638,19 +3650,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>17</v>
@@ -3661,22 +3673,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>29</v>
@@ -3684,19 +3696,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3707,22 +3719,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>29</v>
@@ -3730,19 +3742,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3753,19 +3765,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>17</v>
@@ -3776,19 +3788,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3799,19 +3811,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>17</v>
@@ -3822,22 +3834,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>29</v>
@@ -3845,19 +3857,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3868,19 +3880,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3891,19 +3903,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3914,19 +3926,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3937,22 +3949,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>29</v>
@@ -3960,19 +3972,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3983,22 +3995,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>29</v>
@@ -4006,19 +4018,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4029,19 +4041,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4052,19 +4064,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4075,19 +4087,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4098,19 +4110,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4121,620 +4133,620 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>148</v>
@@ -4742,22 +4754,22 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>148</v>
@@ -4765,22 +4777,22 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>148</v>
@@ -4788,19 +4800,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4811,19 +4823,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
@@ -4834,22 +4846,22 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>148</v>
@@ -4857,19 +4869,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
@@ -4880,30 +4892,30 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>149</v>
@@ -4912,174 +4924,174 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F191" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>167</v>
@@ -5087,22 +5099,22 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>167</v>
@@ -5110,22 +5122,22 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>167</v>
@@ -5133,19 +5145,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5156,22 +5168,22 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>167</v>
@@ -5179,19 +5191,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5202,22 +5214,22 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>167</v>
@@ -5225,576 +5237,806 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D218" s="2" t="s">
+      <c r="E218" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E220" s="2" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E221" s="2" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E222" s="2" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="E223" s="2" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="E224" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E224" s="2" t="s">
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -353,6 +353,9 @@
     <t>opzionale</t>
   </si>
   <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>avvenuto</t>
   </si>
   <si>
@@ -528,9 +531,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3147,10 +3147,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>111</v>
@@ -3159,7 +3159,7 @@
         <v>97</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>112</v>
@@ -3262,16 +3262,16 @@
         <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>41</v>
@@ -3291,7 +3291,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>43</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>44</v>
@@ -3314,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>45</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>46</v>
@@ -3337,7 +3337,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>47</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>48</v>
@@ -3360,7 +3360,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>49</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>50</v>
@@ -3383,7 +3383,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>51</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>52</v>
@@ -3406,7 +3406,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>53</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>54</v>
@@ -3429,7 +3429,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>55</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>56</v>
@@ -3452,7 +3452,7 @@
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>57</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>58</v>
@@ -3475,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>59</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>60</v>
@@ -3498,7 +3498,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>61</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>62</v>
@@ -3521,7 +3521,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>63</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>64</v>
@@ -3544,7 +3544,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>65</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>66</v>
@@ -3567,7 +3567,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>67</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>68</v>
@@ -3590,7 +3590,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>69</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>70</v>
@@ -3613,7 +3613,7 @@
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>71</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>72</v>
@@ -3636,7 +3636,7 @@
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>73</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>74</v>
@@ -3659,7 +3659,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>75</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>76</v>
@@ -3682,7 +3682,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>77</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>78</v>
@@ -3705,7 +3705,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>79</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>80</v>
@@ -3728,7 +3728,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>81</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>82</v>
@@ -3751,7 +3751,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>83</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>84</v>
@@ -3774,7 +3774,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>85</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>86</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>87</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>88</v>
@@ -3820,7 +3820,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>89</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>90</v>
@@ -3843,7 +3843,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>91</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>92</v>
@@ -3866,7 +3866,7 @@
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>93</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>94</v>
@@ -3889,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>95</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>96</v>
@@ -3912,7 +3912,7 @@
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>97</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>100</v>
@@ -3935,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>101</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>102</v>
@@ -3958,7 +3958,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>103</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>104</v>
@@ -3981,7 +3981,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>105</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>106</v>
@@ -4004,7 +4004,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>107</v>
@@ -4018,19 +4018,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4041,19 +4041,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4064,19 +4064,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4087,19 +4087,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4110,19 +4110,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4133,19 +4133,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4156,16 +4156,16 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>28</v>
@@ -4179,19 +4179,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4202,16 +4202,16 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>31</v>
@@ -4225,19 +4225,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4248,19 +4248,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4271,19 +4271,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4294,19 +4294,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4317,154 +4317,154 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>28</v>
@@ -4473,44 +4473,44 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>31</v>
@@ -4519,251 +4519,251 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>28</v>
@@ -4772,44 +4772,44 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>31</v>
@@ -4818,426 +4818,426 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>41</v>
@@ -5246,21 +5246,21 @@
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>44</v>
@@ -5269,7 +5269,7 @@
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>45</v>
@@ -5278,12 +5278,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>46</v>
@@ -5292,7 +5292,7 @@
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>47</v>
@@ -5301,12 +5301,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>48</v>
@@ -5315,7 +5315,7 @@
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>49</v>
@@ -5324,12 +5324,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>50</v>
@@ -5338,7 +5338,7 @@
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>51</v>
@@ -5347,12 +5347,12 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>52</v>
@@ -5361,21 +5361,21 @@
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>54</v>
@@ -5384,7 +5384,7 @@
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>55</v>
@@ -5393,12 +5393,12 @@
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>56</v>
@@ -5407,7 +5407,7 @@
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>57</v>
@@ -5416,12 +5416,12 @@
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>58</v>
@@ -5430,7 +5430,7 @@
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>59</v>
@@ -5439,12 +5439,12 @@
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>60</v>
@@ -5453,7 +5453,7 @@
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>61</v>
@@ -5462,12 +5462,12 @@
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>62</v>
@@ -5476,21 +5476,21 @@
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>64</v>
@@ -5499,7 +5499,7 @@
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>65</v>
@@ -5508,12 +5508,12 @@
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>66</v>
@@ -5522,21 +5522,21 @@
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>68</v>
@@ -5545,21 +5545,21 @@
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>70</v>
@@ -5568,7 +5568,7 @@
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>71</v>
@@ -5577,12 +5577,12 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>72</v>
@@ -5591,21 +5591,21 @@
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>74</v>
@@ -5614,21 +5614,21 @@
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>76</v>
@@ -5637,21 +5637,21 @@
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>78</v>
@@ -5660,7 +5660,7 @@
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>79</v>
@@ -5669,12 +5669,12 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>80</v>
@@ -5683,21 +5683,21 @@
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>82</v>
@@ -5706,7 +5706,7 @@
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>83</v>
@@ -5715,12 +5715,12 @@
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>84</v>
@@ -5729,21 +5729,21 @@
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>86</v>
@@ -5752,7 +5752,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>87</v>
@@ -5761,12 +5761,12 @@
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>88</v>
@@ -5775,21 +5775,21 @@
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>90</v>
@@ -5798,21 +5798,21 @@
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>92</v>
@@ -5821,7 +5821,7 @@
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>93</v>
@@ -5830,12 +5830,12 @@
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>94</v>
@@ -5844,7 +5844,7 @@
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>95</v>
@@ -5853,21 +5853,21 @@
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>97</v>
@@ -5876,7 +5876,7 @@
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="228">

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="192">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
   </si>
   <si>
-    <t>Copia dell'atto di assenso del figlio</t>
+    <t>Copia dell'atto di dichiarazione/assenso del figlio</t>
   </si>
   <si>
     <t>Autorizzazione del tribunale</t>
@@ -446,81 +446,87 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+    <t>Atto Consenso Padre</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.atto</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.tipoConsenso,!=,2</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.altroUfficiale</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.tipoConsenso,!=,3</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Sentenza di consenso</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.sentenzaTribunale</t>
+  </si>
+  <si>
+    <t>evento.consensoPadre.tipoConsenso,!=,4</t>
+  </si>
+  <si>
+    <t>Assenso figlio</t>
+  </si>
+  <si>
+    <t>Assenso reso dinanzi a:</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>assensoReso</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
   </si>
   <si>
-    <t>Atto Consenso Padre</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.atto</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.tipoConsenso,!=,2</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.altroUfficiale</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.tipoConsenso,!=,3</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Sentenza di consenso</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.sentenzaTribunale</t>
-  </si>
-  <si>
-    <t>evento.consensoPadre.tipoConsenso,!=,4</t>
-  </si>
-  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -558,9 +564,6 @@
   </si>
   <si>
     <t>Figlio premorto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -643,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -652,7 +655,7 @@
     <col min="1" max="1" width="20.2421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -4539,7 +4542,7 @@
         <v>137</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>146</v>
@@ -4562,7 +4565,7 @@
         <v>139</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>146</v>
@@ -4585,7 +4588,7 @@
         <v>141</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>146</v>
@@ -4608,7 +4611,7 @@
         <v>143</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>146</v>
@@ -4616,10 +4619,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4628,113 +4631,113 @@
         <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4743,1300 +4746,1024 @@
         <v>148</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
         <v>29</v>
       </c>
     </row>
